--- a/testing/d1g_b.xlsx
+++ b/testing/d1g_b.xlsx
@@ -2358,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="17">
-        <v>-0.80999624947034932</v>
+        <v>51.310475741437763</v>
       </c>
       <c r="C3" s="20">
-        <v>-0.0276533488247694</v>
+        <v>50.170464970209075</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2369,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="25">
-        <v>-1.2032262485035083</v>
+        <v>51.752756646435522</v>
       </c>
       <c r="C4" s="28">
-        <v>-0.06907344418301567</v>
+        <v>50.187732508154959</v>
       </c>
     </row>
     <row r="5">
@@ -2380,10 +2380,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="33">
-        <v>-0.91319756230221461</v>
+        <v>52.488874041344161</v>
       </c>
       <c r="C5" s="36">
-        <v>0.40124445815967103</v>
+        <v>50.659118779642291</v>
       </c>
     </row>
     <row r="6">
@@ -2391,10 +2391,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="41">
-        <v>-1.0147452647825619</v>
+        <v>52.684871806895259</v>
       </c>
       <c r="C6" s="44">
-        <v>0.39337426907859136</v>
+        <v>50.695543352224973</v>
       </c>
     </row>
     <row r="7">
@@ -2402,10 +2402,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49">
-        <v>-0.91648007166246981</v>
+        <v>53.152730033410855</v>
       </c>
       <c r="C7" s="52">
-        <v>0.57213224372256621</v>
+        <v>51.062618369904165</v>
       </c>
     </row>
     <row r="8">
@@ -2418,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="59">
-        <v>0.61300733658565831</v>
+        <v>-0.34470847390136639</v>
       </c>
       <c r="C9" s="62">
-        <v>0.65707670003403051</v>
+        <v>-0.36121802038602074</v>
       </c>
     </row>
     <row r="10">
@@ -2462,10 +2462,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="91">
-        <v>0.78416913799765398</v>
+        <v>0.81769406092511432</v>
       </c>
       <c r="C13" s="94">
-        <v>9.5854586485379404e-12</v>
+        <v>0.96726330638930747</v>
       </c>
     </row>
     <row r="14">
@@ -2473,10 +2473,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="99">
-        <v>3.7232179830393784</v>
+        <v>41.941244041736169</v>
       </c>
       <c r="C14" s="102">
-        <v>7.9132876864317829</v>
+        <v>49.059363041775271</v>
       </c>
     </row>
     <row r="15">
@@ -2484,10 +2484,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="107">
-        <v>9.7797577097783073</v>
+        <v>51.516132699057621</v>
       </c>
       <c r="C15" s="110">
-        <v>9.8058943551561857</v>
+        <v>51.110757709397525</v>
       </c>
     </row>
     <row r="16">
@@ -2500,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="117">
-        <v>0.00871634076479786</v>
+        <v>-0.2291458696175728</v>
       </c>
     </row>
     <row r="18">
@@ -2508,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="122">
-        <v>-192980.47807431672</v>
+        <v>-0.10413878312056032</v>
       </c>
     </row>
     <row r="19">
@@ -2516,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="127">
-        <v>0.99629238093971229</v>
+        <v>-0.087849378515865245</v>
       </c>
     </row>
     <row r="20">
@@ -2524,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="132">
-        <v>-3.2643335975619663</v>
+        <v>-1.4345073382850331</v>
       </c>
     </row>
     <row r="21">
@@ -2532,7 +2532,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="137">
-        <v>0.74556412090020363</v>
+        <v>-0.043867024355286756</v>
       </c>
     </row>
     <row r="22">
@@ -2540,10 +2540,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="144">
-        <v>7113</v>
+        <v>8050</v>
       </c>
       <c r="C22" s="148">
-        <v>8591</v>
+        <v>9932</v>
       </c>
     </row>
   </sheetData>
